--- a/Coding/LogicalProblems/FINAL450.xlsx
+++ b/Coding/LogicalProblems/FINAL450.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rishika\Computer Science\Love Babbar\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rishika Dhanawade\OneDrive\Desktop\eDACPlacementPreparation\Coding\LogicalProblems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4966C782-FA1D-40D5-9D8A-8419BABF1591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7AEAFA7-5989-4C6C-9841-90198B201FEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1861,7 +1861,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
       <selection activeCell="A66" sqref="A66"/>
     </sheetView>
   </sheetViews>
